--- a/data_processed/20250804/BTCUSDVOLSURFACE_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDVOLSURFACE_20250804.xlsx
@@ -19149,7 +19149,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250804/BTCUSDVOLSURFACE_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDVOLSURFACE_20250804.xlsx
@@ -802,7 +802,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19236,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46982,7 +46982,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47069,7 +47069,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47098,7 +47098,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47127,7 +47127,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47156,7 +47156,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47185,7 +47185,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47214,7 +47214,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
